--- a/Code/Results/Cases/Case_1_99/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_99/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9952626009962363</v>
+        <v>1.077031357759747</v>
       </c>
       <c r="D2">
-        <v>1.040638443682635</v>
+        <v>1.063533384468024</v>
       </c>
       <c r="E2">
-        <v>1.013982654867665</v>
+        <v>1.077878684213367</v>
       </c>
       <c r="F2">
-        <v>1.03336606684347</v>
+        <v>1.082105847839071</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058036169286771</v>
+        <v>1.048969482910763</v>
       </c>
       <c r="J2">
-        <v>1.017585936064218</v>
+        <v>1.081927849501584</v>
       </c>
       <c r="K2">
-        <v>1.051559228536975</v>
+        <v>1.066251766231477</v>
       </c>
       <c r="L2">
-        <v>1.025250566404748</v>
+        <v>1.080558826006627</v>
       </c>
       <c r="M2">
-        <v>1.044379335616009</v>
+        <v>1.084774930240696</v>
       </c>
       <c r="N2">
-        <v>1.019031024812167</v>
+        <v>1.083464311146735</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007960499723534</v>
+        <v>1.07934777327441</v>
       </c>
       <c r="D3">
-        <v>1.046635664210891</v>
+        <v>1.064584468655403</v>
       </c>
       <c r="E3">
-        <v>1.024344016816566</v>
+        <v>1.079792744691825</v>
       </c>
       <c r="F3">
-        <v>1.042308441851628</v>
+        <v>1.083733136038729</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060890812877188</v>
+        <v>1.049347159436503</v>
       </c>
       <c r="J3">
-        <v>1.028236481065877</v>
+        <v>1.083897997327971</v>
       </c>
       <c r="K3">
-        <v>1.056704678575902</v>
+        <v>1.067117287426222</v>
       </c>
       <c r="L3">
-        <v>1.034674605711899</v>
+        <v>1.082287992183687</v>
       </c>
       <c r="M3">
-        <v>1.052427151437674</v>
+        <v>1.086218833893026</v>
       </c>
       <c r="N3">
-        <v>1.029696694809363</v>
+        <v>1.085437256809015</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.015807192048127</v>
+        <v>1.080841386819635</v>
       </c>
       <c r="D4">
-        <v>1.050352961825794</v>
+        <v>1.065261125442498</v>
       </c>
       <c r="E4">
-        <v>1.030754295713773</v>
+        <v>1.081026506722317</v>
       </c>
       <c r="F4">
-        <v>1.047844169027168</v>
+        <v>1.084781520411548</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062640035586974</v>
+        <v>1.049588200093771</v>
       </c>
       <c r="J4">
-        <v>1.034815012730356</v>
+        <v>1.085167444801169</v>
       </c>
       <c r="K4">
-        <v>1.059879403349913</v>
+        <v>1.067673276389993</v>
       </c>
       <c r="L4">
-        <v>1.0404951890037</v>
+        <v>1.083401694640658</v>
       </c>
       <c r="M4">
-        <v>1.057397513342793</v>
+        <v>1.087148074224778</v>
       </c>
       <c r="N4">
-        <v>1.036284568743374</v>
+        <v>1.086708507043232</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01902526345452</v>
+        <v>1.081468075055466</v>
       </c>
       <c r="D5">
-        <v>1.051879578968751</v>
+        <v>1.065544773366595</v>
       </c>
       <c r="E5">
-        <v>1.033384731442166</v>
+        <v>1.081544065634548</v>
       </c>
       <c r="F5">
-        <v>1.050116289604714</v>
+        <v>1.085221184939216</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063353595947919</v>
+        <v>1.049688739184866</v>
       </c>
       <c r="J5">
-        <v>1.037512091930692</v>
+        <v>1.085699862811964</v>
       </c>
       <c r="K5">
-        <v>1.061179794841097</v>
+        <v>1.067906052501598</v>
       </c>
       <c r="L5">
-        <v>1.042881330262385</v>
+        <v>1.083868678354168</v>
       </c>
       <c r="M5">
-        <v>1.059434864076601</v>
+        <v>1.087537534149164</v>
       </c>
       <c r="N5">
-        <v>1.038985478105535</v>
+        <v>1.087241681148672</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01956106790286</v>
+        <v>1.081573227772099</v>
       </c>
       <c r="D6">
-        <v>1.052133864453036</v>
+        <v>1.065592351414172</v>
       </c>
       <c r="E6">
-        <v>1.033822772826192</v>
+        <v>1.081630901431111</v>
       </c>
       <c r="F6">
-        <v>1.050494687436166</v>
+        <v>1.085294944018316</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063472170046404</v>
+        <v>1.049705573715659</v>
       </c>
       <c r="J6">
-        <v>1.037961094387509</v>
+        <v>1.085789185191269</v>
       </c>
       <c r="K6">
-        <v>1.061396200906193</v>
+        <v>1.067945080549178</v>
       </c>
       <c r="L6">
-        <v>1.043278554486615</v>
+        <v>1.083947016319646</v>
       </c>
       <c r="M6">
-        <v>1.059774005200909</v>
+        <v>1.087602856795116</v>
       </c>
       <c r="N6">
-        <v>1.039435118197341</v>
+        <v>1.087331130376001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.015850499564224</v>
+        <v>1.080849765435179</v>
       </c>
       <c r="D7">
-        <v>1.050373498926197</v>
+        <v>1.06526491876156</v>
       </c>
       <c r="E7">
-        <v>1.030789689653654</v>
+        <v>1.081033426715069</v>
       </c>
       <c r="F7">
-        <v>1.047874739748213</v>
+        <v>1.084787399432194</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.062649653934906</v>
+        <v>1.049589546615965</v>
       </c>
       <c r="J7">
-        <v>1.034851312719876</v>
+        <v>1.085174563901113</v>
       </c>
       <c r="K7">
-        <v>1.059896910481814</v>
+        <v>1.067676390520022</v>
       </c>
       <c r="L7">
-        <v>1.040527304972904</v>
+        <v>1.083407939248495</v>
       </c>
       <c r="M7">
-        <v>1.057424936012233</v>
+        <v>1.087153282868065</v>
       </c>
       <c r="N7">
-        <v>1.036320920283044</v>
+        <v>1.086715636253114</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9996355518206557</v>
+        <v>1.077815310715613</v>
       </c>
       <c r="D8">
-        <v>1.04270096299942</v>
+        <v>1.063889327365322</v>
       </c>
       <c r="E8">
-        <v>1.017549132684766</v>
+        <v>1.078526551680056</v>
       </c>
       <c r="F8">
-        <v>1.036443241993876</v>
+        <v>1.082656758032253</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059022241155412</v>
+        <v>1.049097815648422</v>
       </c>
       <c r="J8">
-        <v>1.021254331228664</v>
+        <v>1.082594798937264</v>
       </c>
       <c r="K8">
-        <v>1.053331995051497</v>
+        <v>1.066545120479757</v>
       </c>
       <c r="L8">
-        <v>1.028496523149767</v>
+        <v>1.081144293781077</v>
       </c>
       <c r="M8">
-        <v>1.04715119648137</v>
+        <v>1.08526396392115</v>
       </c>
       <c r="N8">
-        <v>1.022704629518518</v>
+        <v>1.084132207727114</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9678048357956005</v>
+        <v>1.072426423013238</v>
       </c>
       <c r="D9">
-        <v>1.02777060755821</v>
+        <v>1.061438325185423</v>
       </c>
       <c r="E9">
-        <v>0.9916392034119121</v>
+        <v>1.074071476382956</v>
       </c>
       <c r="F9">
-        <v>1.014115561713981</v>
+        <v>1.078866304311075</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051792264928429</v>
+        <v>1.048205481372919</v>
       </c>
       <c r="J9">
-        <v>0.9945480568617033</v>
+        <v>1.07800653453221</v>
       </c>
       <c r="K9">
-        <v>1.040428639315109</v>
+        <v>1.0645200933573</v>
       </c>
       <c r="L9">
-        <v>1.00486940101172</v>
+        <v>1.077114664824047</v>
       </c>
       <c r="M9">
-        <v>1.026983701065591</v>
+        <v>1.081895107809791</v>
       </c>
       <c r="N9">
-        <v>0.9959604291787034</v>
+        <v>1.079537427460324</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9436347084840498</v>
+        <v>1.068803635328532</v>
       </c>
       <c r="D10">
-        <v>1.016588234092006</v>
+        <v>1.059785443071059</v>
       </c>
       <c r="E10">
-        <v>0.9720566236117154</v>
+        <v>1.071074480345075</v>
       </c>
       <c r="F10">
-        <v>0.997294823998425</v>
+        <v>1.076313844852727</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046253844041241</v>
+        <v>1.04759286108149</v>
       </c>
       <c r="J10">
-        <v>0.9742779949547719</v>
+        <v>1.074917412536218</v>
       </c>
       <c r="K10">
-        <v>1.030664305637946</v>
+        <v>1.063148157459192</v>
       </c>
       <c r="L10">
-        <v>0.9869494231827572</v>
+        <v>1.074399271105366</v>
       </c>
       <c r="M10">
-        <v>1.011713093616068</v>
+        <v>1.079621331326787</v>
       </c>
       <c r="N10">
-        <v>0.9756615814588556</v>
+        <v>1.07644391855677</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9322304629934119</v>
+        <v>1.067227294560549</v>
       </c>
       <c r="D11">
-        <v>1.011367961246147</v>
+        <v>1.059065089127202</v>
       </c>
       <c r="E11">
-        <v>0.9628496096135887</v>
+        <v>1.06976998829416</v>
       </c>
       <c r="F11">
-        <v>0.9894068840320287</v>
+        <v>1.07520226462541</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043637225580585</v>
+        <v>1.047323303320898</v>
       </c>
       <c r="J11">
-        <v>0.964722037416973</v>
+        <v>1.073572206649346</v>
       </c>
       <c r="K11">
-        <v>1.026078632194079</v>
+        <v>1.062548741093807</v>
       </c>
       <c r="L11">
-        <v>0.9785078646204523</v>
+        <v>1.073216255610803</v>
       </c>
       <c r="M11">
-        <v>1.004531374686073</v>
+        <v>1.078629874043384</v>
       </c>
       <c r="N11">
-        <v>0.9660920533652693</v>
+        <v>1.075096802323242</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9278254503496629</v>
+        <v>1.066640581198432</v>
       </c>
       <c r="D12">
-        <v>1.009362068292272</v>
+        <v>1.058796805770543</v>
       </c>
       <c r="E12">
-        <v>0.9592994366373635</v>
+        <v>1.069284392296428</v>
       </c>
       <c r="F12">
-        <v>0.9863692686855848</v>
+        <v>1.074788395114358</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042626918123671</v>
+        <v>1.04722252606108</v>
       </c>
       <c r="J12">
-        <v>0.9610328510468833</v>
+        <v>1.073071361374436</v>
       </c>
       <c r="K12">
-        <v>1.024312077268394</v>
+        <v>1.062325272521142</v>
       </c>
       <c r="L12">
-        <v>0.9752502652825037</v>
+        <v>1.072775714231519</v>
       </c>
       <c r="M12">
-        <v>1.001762355635931</v>
+        <v>1.078260542423144</v>
       </c>
       <c r="N12">
-        <v>0.9623976279273785</v>
+        <v>1.074595245790593</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9287785300309813</v>
+        <v>1.066766487730114</v>
       </c>
       <c r="D13">
-        <v>1.009795557533899</v>
+        <v>1.058854385899807</v>
       </c>
       <c r="E13">
-        <v>0.9600672619153999</v>
+        <v>1.069388602300915</v>
       </c>
       <c r="F13">
-        <v>0.9870260463402672</v>
+        <v>1.074877216248143</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042845476465218</v>
+        <v>1.047244172723021</v>
       </c>
       <c r="J13">
-        <v>0.9618309540138571</v>
+        <v>1.073178848162634</v>
       </c>
       <c r="K13">
-        <v>1.024694053941432</v>
+        <v>1.062373244553463</v>
       </c>
       <c r="L13">
-        <v>0.97595493205645</v>
+        <v>1.072870262878524</v>
       </c>
       <c r="M13">
-        <v>1.002361215126913</v>
+        <v>1.078339813677796</v>
       </c>
       <c r="N13">
-        <v>0.9631968642921095</v>
+        <v>1.07470288522236</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9318699825818962</v>
+        <v>1.067178821170237</v>
       </c>
       <c r="D14">
-        <v>1.011203585723047</v>
+        <v>1.059042927344022</v>
       </c>
       <c r="E14">
-        <v>0.9625589525656434</v>
+        <v>1.069729870375452</v>
       </c>
       <c r="F14">
-        <v>0.9891581059805798</v>
+        <v>1.07516807416449</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043554534163839</v>
+        <v>1.047314986373321</v>
       </c>
       <c r="J14">
-        <v>0.9644200930766066</v>
+        <v>1.073530830814107</v>
       </c>
       <c r="K14">
-        <v>1.02593396305507</v>
+        <v>1.062530285891046</v>
       </c>
       <c r="L14">
-        <v>0.9782412138914146</v>
+        <v>1.073179863280964</v>
       </c>
       <c r="M14">
-        <v>1.004304664008169</v>
+        <v>1.078599366745593</v>
       </c>
       <c r="N14">
-        <v>0.9657896802293062</v>
+        <v>1.07505536772957</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9337513576701421</v>
+        <v>1.067432714460423</v>
       </c>
       <c r="D15">
-        <v>1.012061910645357</v>
+        <v>1.059158999204235</v>
       </c>
       <c r="E15">
-        <v>0.9640761693835708</v>
+        <v>1.069939996854857</v>
       </c>
       <c r="F15">
-        <v>0.9904568802604423</v>
+        <v>1.075347150817485</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04398612862795</v>
+        <v>1.047358530454471</v>
       </c>
       <c r="J15">
-        <v>0.9659960451803179</v>
+        <v>1.073747542072964</v>
       </c>
       <c r="K15">
-        <v>1.026689201951791</v>
+        <v>1.062626935355266</v>
       </c>
       <c r="L15">
-        <v>0.9796330137758359</v>
+        <v>1.073370469414072</v>
       </c>
       <c r="M15">
-        <v>1.005488095532386</v>
+        <v>1.078759144738539</v>
       </c>
       <c r="N15">
-        <v>0.967367870365769</v>
+        <v>1.075272386743272</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9443695934969147</v>
+        <v>1.06890808722432</v>
       </c>
       <c r="D16">
-        <v>1.016925924413032</v>
+        <v>1.059833151537998</v>
       </c>
       <c r="E16">
-        <v>0.9726506779031501</v>
+        <v>1.071160909767801</v>
       </c>
       <c r="F16">
-        <v>0.9978042524505391</v>
+        <v>1.076387480864249</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046422458349199</v>
+        <v>1.047610659771307</v>
       </c>
       <c r="J16">
-        <v>0.9748939944371401</v>
+        <v>1.075006526435744</v>
       </c>
       <c r="K16">
-        <v>1.03096035541735</v>
+        <v>1.063187824692715</v>
       </c>
       <c r="L16">
-        <v>0.9874937474562102</v>
+        <v>1.074477629008624</v>
       </c>
       <c r="M16">
-        <v>1.012176470601565</v>
+        <v>1.079686983726247</v>
       </c>
       <c r="N16">
-        <v>0.976278455731145</v>
+        <v>1.076533159008255</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9507615538196609</v>
+        <v>1.069831472841084</v>
       </c>
       <c r="D17">
-        <v>1.019869481104961</v>
+        <v>1.060254776094671</v>
       </c>
       <c r="E17">
-        <v>0.9778214173580595</v>
+        <v>1.071924920436448</v>
       </c>
       <c r="F17">
-        <v>1.002240743226192</v>
+        <v>1.077038335008255</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047888757160857</v>
+        <v>1.047767660530562</v>
       </c>
       <c r="J17">
-        <v>0.9802528546853803</v>
+        <v>1.075794196138429</v>
       </c>
       <c r="K17">
-        <v>1.033537870214783</v>
+        <v>1.063538211524667</v>
       </c>
       <c r="L17">
-        <v>0.9922298230732447</v>
+        <v>1.075170163566775</v>
       </c>
       <c r="M17">
-        <v>1.016209597835034</v>
+        <v>1.080267129234235</v>
       </c>
       <c r="N17">
-        <v>0.9816449261756073</v>
+        <v>1.077321947292265</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9544015806128002</v>
+        <v>1.070369332752339</v>
       </c>
       <c r="D18">
-        <v>1.021550715063063</v>
+        <v>1.060500255338869</v>
       </c>
       <c r="E18">
-        <v>0.9807688970667695</v>
+        <v>1.072369903626467</v>
       </c>
       <c r="F18">
-        <v>1.004771503097261</v>
+        <v>1.077417356420475</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048723392064668</v>
+        <v>1.047858823065878</v>
       </c>
       <c r="J18">
-        <v>0.9833052543070577</v>
+        <v>1.076252900053</v>
       </c>
       <c r="K18">
-        <v>1.035007542241715</v>
+        <v>1.063742070088721</v>
       </c>
       <c r="L18">
-        <v>0.9949280518696831</v>
+        <v>1.075573411531345</v>
       </c>
       <c r="M18">
-        <v>1.018508379351821</v>
+        <v>1.080604854471984</v>
       </c>
       <c r="N18">
-        <v>0.9847016605548627</v>
+        <v>1.077781302619008</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9556284823678799</v>
+        <v>1.070552605591695</v>
       </c>
       <c r="D19">
-        <v>1.022118179233487</v>
+        <v>1.060583881978257</v>
       </c>
       <c r="E19">
-        <v>0.9817628316922733</v>
+        <v>1.072521521882372</v>
       </c>
       <c r="F19">
-        <v>1.005625201814344</v>
+        <v>1.077546490085442</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04900462599542</v>
+        <v>1.047889837236036</v>
       </c>
       <c r="J19">
-        <v>0.9843341917525608</v>
+        <v>1.076409183371877</v>
       </c>
       <c r="K19">
-        <v>1.035503185000659</v>
+        <v>1.063811493448188</v>
       </c>
       <c r="L19">
-        <v>0.9958376879274337</v>
+        <v>1.075710791565755</v>
       </c>
       <c r="M19">
-        <v>1.019283512018438</v>
+        <v>1.080719898175752</v>
       </c>
       <c r="N19">
-        <v>0.985732059209559</v>
+        <v>1.077937807878124</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9500850663406024</v>
+        <v>1.069732478652605</v>
       </c>
       <c r="D20">
-        <v>1.019557420853503</v>
+        <v>1.060209586129048</v>
       </c>
       <c r="E20">
-        <v>0.9772738664032256</v>
+        <v>1.071843016920087</v>
       </c>
       <c r="F20">
-        <v>1.001770749329014</v>
+        <v>1.076968567878198</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047733606550823</v>
+        <v>1.047750858640929</v>
       </c>
       <c r="J20">
-        <v>0.9796856280380417</v>
+        <v>1.075709762442306</v>
       </c>
       <c r="K20">
-        <v>1.033264878298177</v>
+        <v>1.063500671818237</v>
       </c>
       <c r="L20">
-        <v>0.9917284556863682</v>
+        <v>1.075095933342245</v>
       </c>
       <c r="M20">
-        <v>1.015782533543418</v>
+        <v>1.080204953946696</v>
       </c>
       <c r="N20">
-        <v>0.9810768940013679</v>
+        <v>1.077237393690609</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9309645587530807</v>
+        <v>1.067057432437017</v>
       </c>
       <c r="D21">
-        <v>1.010790897143626</v>
+        <v>1.058987426351298</v>
       </c>
       <c r="E21">
-        <v>0.9618290079357018</v>
+        <v>1.069629404666253</v>
       </c>
       <c r="F21">
-        <v>0.988533400710216</v>
+        <v>1.075082450991791</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043346846622012</v>
+        <v>1.047294151560826</v>
       </c>
       <c r="J21">
-        <v>0.9636617282690997</v>
+        <v>1.073427213439103</v>
       </c>
       <c r="K21">
-        <v>1.025570676521557</v>
+        <v>1.062484063839612</v>
       </c>
       <c r="L21">
-        <v>0.9775715159318312</v>
+        <v>1.073088724751959</v>
       </c>
       <c r="M21">
-        <v>1.003735317128713</v>
+        <v>1.078522964299239</v>
       </c>
       <c r="N21">
-        <v>0.9650302384567871</v>
+        <v>1.074951603206009</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9179442408025917</v>
+        <v>1.065368617724247</v>
       </c>
       <c r="D22">
-        <v>1.004884882169975</v>
+        <v>1.058214880468314</v>
       </c>
       <c r="E22">
-        <v>0.9513489085157467</v>
+        <v>1.068231530064613</v>
       </c>
       <c r="F22">
-        <v>0.9795750631112274</v>
+        <v>1.073890896677326</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04036257322975</v>
+        <v>1.047003228659693</v>
       </c>
       <c r="J22">
-        <v>0.9527618694120682</v>
+        <v>1.0719852631743</v>
       </c>
       <c r="K22">
-        <v>1.020360185761033</v>
+        <v>1.061840138749923</v>
       </c>
       <c r="L22">
-        <v>0.9679499480737503</v>
+        <v>1.071820236531697</v>
       </c>
       <c r="M22">
-        <v>0.9955622990964162</v>
+        <v>1.077459284213069</v>
       </c>
       <c r="N22">
-        <v>0.9541149005499469</v>
+        <v>1.073507605206435</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9249529901096456</v>
+        <v>1.066264558901111</v>
       </c>
       <c r="D23">
-        <v>1.008057317678041</v>
+        <v>1.058624817438113</v>
       </c>
       <c r="E23">
-        <v>0.9569863238394694</v>
+        <v>1.068973157805413</v>
       </c>
       <c r="F23">
-        <v>0.9843913464180077</v>
+        <v>1.074523108926362</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041968351164499</v>
+        <v>1.047157812444331</v>
       </c>
       <c r="J23">
-        <v>0.9586278146737359</v>
+        <v>1.072750326609911</v>
       </c>
       <c r="K23">
-        <v>1.023161676045875</v>
+        <v>1.062181949808743</v>
       </c>
       <c r="L23">
-        <v>0.9731270288819271</v>
+        <v>1.072493310256447</v>
       </c>
       <c r="M23">
-        <v>0.9999583394055905</v>
+        <v>1.078023751897594</v>
       </c>
       <c r="N23">
-        <v>0.9599891761267197</v>
+        <v>1.07427375511988</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9503910127527724</v>
+        <v>1.069777212135691</v>
       </c>
       <c r="D24">
-        <v>1.01969853702503</v>
+        <v>1.060230006910929</v>
       </c>
       <c r="E24">
-        <v>0.9775214913591342</v>
+        <v>1.071880027605005</v>
       </c>
       <c r="F24">
-        <v>1.001983294175397</v>
+        <v>1.077000094527715</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047803775791052</v>
+        <v>1.047758451968678</v>
       </c>
       <c r="J24">
-        <v>0.9799421583276686</v>
+        <v>1.07574791665109</v>
       </c>
       <c r="K24">
-        <v>1.033388335201174</v>
+        <v>1.063517635990204</v>
       </c>
       <c r="L24">
-        <v>0.9919551991475783</v>
+        <v>1.075129476934179</v>
       </c>
       <c r="M24">
-        <v>1.015975670234425</v>
+        <v>1.08023305033322</v>
       </c>
       <c r="N24">
-        <v>0.9813337885934305</v>
+        <v>1.077275602082745</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9764878585447568</v>
+        <v>1.07382474605383</v>
       </c>
       <c r="D25">
-        <v>1.031822887438511</v>
+        <v>1.06207524341828</v>
       </c>
       <c r="E25">
-        <v>0.9986947607314731</v>
+        <v>1.075227847849791</v>
       </c>
       <c r="F25">
-        <v>1.020188624490816</v>
+        <v>1.079850624287458</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053774654701644</v>
+        <v>1.048439269789967</v>
       </c>
       <c r="J25">
-        <v>1.001833262000499</v>
+        <v>1.07919791559384</v>
       </c>
       <c r="K25">
-        <v>1.043946492380806</v>
+        <v>1.06504742381184</v>
       </c>
       <c r="L25">
-        <v>1.011313372706573</v>
+        <v>1.078161412647608</v>
       </c>
       <c r="M25">
-        <v>1.032481418167598</v>
+        <v>1.082770859564601</v>
       </c>
       <c r="N25">
-        <v>1.003255980144421</v>
+        <v>1.080730500419714</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_99/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_99/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.077031357759747</v>
+        <v>0.9952626009962348</v>
       </c>
       <c r="D2">
-        <v>1.063533384468024</v>
+        <v>1.040638443682635</v>
       </c>
       <c r="E2">
-        <v>1.077878684213367</v>
+        <v>1.013982654867664</v>
       </c>
       <c r="F2">
-        <v>1.082105847839071</v>
+        <v>1.03336606684347</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048969482910763</v>
+        <v>1.05803616928677</v>
       </c>
       <c r="J2">
-        <v>1.081927849501584</v>
+        <v>1.017585936064216</v>
       </c>
       <c r="K2">
-        <v>1.066251766231477</v>
+        <v>1.051559228536974</v>
       </c>
       <c r="L2">
-        <v>1.080558826006627</v>
+        <v>1.025250566404746</v>
       </c>
       <c r="M2">
-        <v>1.084774930240696</v>
+        <v>1.044379335616008</v>
       </c>
       <c r="N2">
-        <v>1.083464311146735</v>
+        <v>1.019031024812165</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.07934777327441</v>
+        <v>1.007960499723533</v>
       </c>
       <c r="D3">
-        <v>1.064584468655403</v>
+        <v>1.04663566421089</v>
       </c>
       <c r="E3">
-        <v>1.079792744691825</v>
+        <v>1.024344016816565</v>
       </c>
       <c r="F3">
-        <v>1.083733136038729</v>
+        <v>1.042308441851627</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049347159436503</v>
+        <v>1.060890812877188</v>
       </c>
       <c r="J3">
-        <v>1.083897997327971</v>
+        <v>1.028236481065876</v>
       </c>
       <c r="K3">
-        <v>1.067117287426222</v>
+        <v>1.056704678575902</v>
       </c>
       <c r="L3">
-        <v>1.082287992183687</v>
+        <v>1.034674605711898</v>
       </c>
       <c r="M3">
-        <v>1.086218833893026</v>
+        <v>1.052427151437673</v>
       </c>
       <c r="N3">
-        <v>1.085437256809015</v>
+        <v>1.029696694809362</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.080841386819635</v>
+        <v>1.01580719204813</v>
       </c>
       <c r="D4">
-        <v>1.065261125442498</v>
+        <v>1.050352961825795</v>
       </c>
       <c r="E4">
-        <v>1.081026506722317</v>
+        <v>1.030754295713776</v>
       </c>
       <c r="F4">
-        <v>1.084781520411548</v>
+        <v>1.04784416902717</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049588200093771</v>
+        <v>1.062640035586975</v>
       </c>
       <c r="J4">
-        <v>1.085167444801169</v>
+        <v>1.034815012730359</v>
       </c>
       <c r="K4">
-        <v>1.067673276389993</v>
+        <v>1.059879403349915</v>
       </c>
       <c r="L4">
-        <v>1.083401694640658</v>
+        <v>1.040495189003702</v>
       </c>
       <c r="M4">
-        <v>1.087148074224778</v>
+        <v>1.057397513342795</v>
       </c>
       <c r="N4">
-        <v>1.086708507043232</v>
+        <v>1.036284568743377</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.081468075055466</v>
+        <v>1.019025263454517</v>
       </c>
       <c r="D5">
-        <v>1.065544773366595</v>
+        <v>1.051879578968749</v>
       </c>
       <c r="E5">
-        <v>1.081544065634548</v>
+        <v>1.033384731442163</v>
       </c>
       <c r="F5">
-        <v>1.085221184939216</v>
+        <v>1.050116289604712</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049688739184866</v>
+        <v>1.063353595947919</v>
       </c>
       <c r="J5">
-        <v>1.085699862811964</v>
+        <v>1.037512091930689</v>
       </c>
       <c r="K5">
-        <v>1.067906052501598</v>
+        <v>1.061179794841096</v>
       </c>
       <c r="L5">
-        <v>1.083868678354168</v>
+        <v>1.042881330262382</v>
       </c>
       <c r="M5">
-        <v>1.087537534149164</v>
+        <v>1.059434864076598</v>
       </c>
       <c r="N5">
-        <v>1.087241681148672</v>
+        <v>1.038985478105531</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.081573227772099</v>
+        <v>1.019561067902859</v>
       </c>
       <c r="D6">
-        <v>1.065592351414172</v>
+        <v>1.052133864453036</v>
       </c>
       <c r="E6">
-        <v>1.081630901431111</v>
+        <v>1.033822772826192</v>
       </c>
       <c r="F6">
-        <v>1.085294944018316</v>
+        <v>1.050494687436166</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049705573715659</v>
+        <v>1.063472170046404</v>
       </c>
       <c r="J6">
-        <v>1.085789185191269</v>
+        <v>1.037961094387509</v>
       </c>
       <c r="K6">
-        <v>1.067945080549178</v>
+        <v>1.061396200906194</v>
       </c>
       <c r="L6">
-        <v>1.083947016319646</v>
+        <v>1.043278554486615</v>
       </c>
       <c r="M6">
-        <v>1.087602856795116</v>
+        <v>1.059774005200909</v>
       </c>
       <c r="N6">
-        <v>1.087331130376001</v>
+        <v>1.03943511819734</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.080849765435179</v>
+        <v>1.015850499564222</v>
       </c>
       <c r="D7">
-        <v>1.06526491876156</v>
+        <v>1.050373498926195</v>
       </c>
       <c r="E7">
-        <v>1.081033426715069</v>
+        <v>1.030789689653653</v>
       </c>
       <c r="F7">
-        <v>1.084787399432194</v>
+        <v>1.047874739748211</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049589546615965</v>
+        <v>1.062649653934905</v>
       </c>
       <c r="J7">
-        <v>1.085174563901113</v>
+        <v>1.034851312719875</v>
       </c>
       <c r="K7">
-        <v>1.067676390520022</v>
+        <v>1.059896910481812</v>
       </c>
       <c r="L7">
-        <v>1.083407939248495</v>
+        <v>1.040527304972902</v>
       </c>
       <c r="M7">
-        <v>1.087153282868065</v>
+        <v>1.057424936012232</v>
       </c>
       <c r="N7">
-        <v>1.086715636253114</v>
+        <v>1.036320920283042</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.077815310715613</v>
+        <v>0.9996355518206524</v>
       </c>
       <c r="D8">
-        <v>1.063889327365322</v>
+        <v>1.042700962999418</v>
       </c>
       <c r="E8">
-        <v>1.078526551680056</v>
+        <v>1.017549132684763</v>
       </c>
       <c r="F8">
-        <v>1.082656758032253</v>
+        <v>1.036443241993874</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049097815648422</v>
+        <v>1.059022241155412</v>
       </c>
       <c r="J8">
-        <v>1.082594798937264</v>
+        <v>1.021254331228661</v>
       </c>
       <c r="K8">
-        <v>1.066545120479757</v>
+        <v>1.053331995051495</v>
       </c>
       <c r="L8">
-        <v>1.081144293781077</v>
+        <v>1.028496523149764</v>
       </c>
       <c r="M8">
-        <v>1.08526396392115</v>
+        <v>1.047151196481367</v>
       </c>
       <c r="N8">
-        <v>1.084132207727114</v>
+        <v>1.022704629518515</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.072426423013238</v>
+        <v>0.9678048357956012</v>
       </c>
       <c r="D9">
-        <v>1.061438325185423</v>
+        <v>1.02777060755821</v>
       </c>
       <c r="E9">
-        <v>1.074071476382956</v>
+        <v>0.9916392034119128</v>
       </c>
       <c r="F9">
-        <v>1.078866304311075</v>
+        <v>1.014115561713981</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048205481372919</v>
+        <v>1.051792264928429</v>
       </c>
       <c r="J9">
-        <v>1.07800653453221</v>
+        <v>0.9945480568617039</v>
       </c>
       <c r="K9">
-        <v>1.0645200933573</v>
+        <v>1.040428639315108</v>
       </c>
       <c r="L9">
-        <v>1.077114664824047</v>
+        <v>1.00486940101172</v>
       </c>
       <c r="M9">
-        <v>1.081895107809791</v>
+        <v>1.026983701065591</v>
       </c>
       <c r="N9">
-        <v>1.079537427460324</v>
+        <v>0.9959604291787041</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.068803635328532</v>
+        <v>0.9436347084840485</v>
       </c>
       <c r="D10">
-        <v>1.059785443071059</v>
+        <v>1.016588234092005</v>
       </c>
       <c r="E10">
-        <v>1.071074480345075</v>
+        <v>0.9720566236117141</v>
       </c>
       <c r="F10">
-        <v>1.076313844852727</v>
+        <v>0.997294823998424</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04759286108149</v>
+        <v>1.04625384404124</v>
       </c>
       <c r="J10">
-        <v>1.074917412536218</v>
+        <v>0.9742779949547703</v>
       </c>
       <c r="K10">
-        <v>1.063148157459192</v>
+        <v>1.030664305637945</v>
       </c>
       <c r="L10">
-        <v>1.074399271105366</v>
+        <v>0.9869494231827561</v>
       </c>
       <c r="M10">
-        <v>1.079621331326787</v>
+        <v>1.011713093616067</v>
       </c>
       <c r="N10">
-        <v>1.07644391855677</v>
+        <v>0.9756615814588541</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.067227294560549</v>
+        <v>0.9322304629934124</v>
       </c>
       <c r="D11">
-        <v>1.059065089127202</v>
+        <v>1.011367961246148</v>
       </c>
       <c r="E11">
-        <v>1.06976998829416</v>
+        <v>0.9628496096135893</v>
       </c>
       <c r="F11">
-        <v>1.07520226462541</v>
+        <v>0.9894068840320296</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047323303320898</v>
+        <v>1.043637225580586</v>
       </c>
       <c r="J11">
-        <v>1.073572206649346</v>
+        <v>0.9647220374169739</v>
       </c>
       <c r="K11">
-        <v>1.062548741093807</v>
+        <v>1.026078632194079</v>
       </c>
       <c r="L11">
-        <v>1.073216255610803</v>
+        <v>0.978507864620453</v>
       </c>
       <c r="M11">
-        <v>1.078629874043384</v>
+        <v>1.004531374686074</v>
       </c>
       <c r="N11">
-        <v>1.075096802323242</v>
+        <v>0.96609205336527</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.066640581198432</v>
+        <v>0.9278254503496631</v>
       </c>
       <c r="D12">
-        <v>1.058796805770543</v>
+        <v>1.009362068292272</v>
       </c>
       <c r="E12">
-        <v>1.069284392296428</v>
+        <v>0.9592994366373634</v>
       </c>
       <c r="F12">
-        <v>1.074788395114358</v>
+        <v>0.9863692686855848</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04722252606108</v>
+        <v>1.042626918123671</v>
       </c>
       <c r="J12">
-        <v>1.073071361374436</v>
+        <v>0.9610328510468834</v>
       </c>
       <c r="K12">
-        <v>1.062325272521142</v>
+        <v>1.024312077268394</v>
       </c>
       <c r="L12">
-        <v>1.072775714231519</v>
+        <v>0.9752502652825035</v>
       </c>
       <c r="M12">
-        <v>1.078260542423144</v>
+        <v>1.001762355635931</v>
       </c>
       <c r="N12">
-        <v>1.074595245790593</v>
+        <v>0.9623976279273786</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.066766487730114</v>
+        <v>0.9287785300309839</v>
       </c>
       <c r="D13">
-        <v>1.058854385899807</v>
+        <v>1.009795557533901</v>
       </c>
       <c r="E13">
-        <v>1.069388602300915</v>
+        <v>0.9600672619154024</v>
       </c>
       <c r="F13">
-        <v>1.074877216248143</v>
+        <v>0.9870260463402697</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047244172723021</v>
+        <v>1.042845476465219</v>
       </c>
       <c r="J13">
-        <v>1.073178848162634</v>
+        <v>0.9618309540138597</v>
       </c>
       <c r="K13">
-        <v>1.062373244553463</v>
+        <v>1.024694053941434</v>
       </c>
       <c r="L13">
-        <v>1.072870262878524</v>
+        <v>0.9759549320564521</v>
       </c>
       <c r="M13">
-        <v>1.078339813677796</v>
+        <v>1.002361215126916</v>
       </c>
       <c r="N13">
-        <v>1.07470288522236</v>
+        <v>0.9631968642921118</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.067178821170237</v>
+        <v>0.9318699825818976</v>
       </c>
       <c r="D14">
-        <v>1.059042927344022</v>
+        <v>1.011203585723047</v>
       </c>
       <c r="E14">
-        <v>1.069729870375452</v>
+        <v>0.9625589525656441</v>
       </c>
       <c r="F14">
-        <v>1.07516807416449</v>
+        <v>0.9891581059805806</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047314986373321</v>
+        <v>1.043554534163839</v>
       </c>
       <c r="J14">
-        <v>1.073530830814107</v>
+        <v>0.9644200930766077</v>
       </c>
       <c r="K14">
-        <v>1.062530285891046</v>
+        <v>1.02593396305507</v>
       </c>
       <c r="L14">
-        <v>1.073179863280964</v>
+        <v>0.9782412138914156</v>
       </c>
       <c r="M14">
-        <v>1.078599366745593</v>
+        <v>1.004304664008169</v>
       </c>
       <c r="N14">
-        <v>1.07505536772957</v>
+        <v>0.9657896802293073</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.067432714460423</v>
+        <v>0.9337513576701437</v>
       </c>
       <c r="D15">
-        <v>1.059158999204235</v>
+        <v>1.012061910645357</v>
       </c>
       <c r="E15">
-        <v>1.069939996854857</v>
+        <v>0.964076169383572</v>
       </c>
       <c r="F15">
-        <v>1.075347150817485</v>
+        <v>0.9904568802604437</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047358530454471</v>
+        <v>1.04398612862795</v>
       </c>
       <c r="J15">
-        <v>1.073747542072964</v>
+        <v>0.9659960451803193</v>
       </c>
       <c r="K15">
-        <v>1.062626935355266</v>
+        <v>1.026689201951792</v>
       </c>
       <c r="L15">
-        <v>1.073370469414072</v>
+        <v>0.9796330137758373</v>
       </c>
       <c r="M15">
-        <v>1.078759144738539</v>
+        <v>1.005488095532387</v>
       </c>
       <c r="N15">
-        <v>1.075272386743272</v>
+        <v>0.9673678703657707</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>1.06890808722432</v>
+        <v>0.9443695934969126</v>
       </c>
       <c r="D16">
-        <v>1.059833151537998</v>
+        <v>1.016925924413031</v>
       </c>
       <c r="E16">
-        <v>1.071160909767801</v>
+        <v>0.9726506779031482</v>
       </c>
       <c r="F16">
-        <v>1.076387480864249</v>
+        <v>0.9978042524505368</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047610659771307</v>
+        <v>1.046422458349198</v>
       </c>
       <c r="J16">
-        <v>1.075006526435744</v>
+        <v>0.9748939944371382</v>
       </c>
       <c r="K16">
-        <v>1.063187824692715</v>
+        <v>1.030960355417349</v>
       </c>
       <c r="L16">
-        <v>1.074477629008624</v>
+        <v>0.9874937474562084</v>
       </c>
       <c r="M16">
-        <v>1.079686983726247</v>
+        <v>1.012176470601563</v>
       </c>
       <c r="N16">
-        <v>1.076533159008255</v>
+        <v>0.9762784557311429</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.069831472841084</v>
+        <v>0.9507615538196597</v>
       </c>
       <c r="D17">
-        <v>1.060254776094671</v>
+        <v>1.01986948110496</v>
       </c>
       <c r="E17">
-        <v>1.071924920436448</v>
+        <v>0.9778214173580585</v>
       </c>
       <c r="F17">
-        <v>1.077038335008255</v>
+        <v>1.002240743226191</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047767660530562</v>
+        <v>1.047888757160857</v>
       </c>
       <c r="J17">
-        <v>1.075794196138429</v>
+        <v>0.9802528546853791</v>
       </c>
       <c r="K17">
-        <v>1.063538211524667</v>
+        <v>1.033537870214783</v>
       </c>
       <c r="L17">
-        <v>1.075170163566775</v>
+        <v>0.9922298230732435</v>
       </c>
       <c r="M17">
-        <v>1.080267129234235</v>
+        <v>1.016209597835033</v>
       </c>
       <c r="N17">
-        <v>1.077321947292265</v>
+        <v>0.9816449261756064</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.070369332752339</v>
+        <v>0.9544015806128008</v>
       </c>
       <c r="D18">
-        <v>1.060500255338869</v>
+        <v>1.021550715063063</v>
       </c>
       <c r="E18">
-        <v>1.072369903626467</v>
+        <v>0.9807688970667701</v>
       </c>
       <c r="F18">
-        <v>1.077417356420475</v>
+        <v>1.004771503097261</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047858823065878</v>
+        <v>1.048723392064668</v>
       </c>
       <c r="J18">
-        <v>1.076252900053</v>
+        <v>0.9833052543070581</v>
       </c>
       <c r="K18">
-        <v>1.063742070088721</v>
+        <v>1.035007542241715</v>
       </c>
       <c r="L18">
-        <v>1.075573411531345</v>
+        <v>0.9949280518696832</v>
       </c>
       <c r="M18">
-        <v>1.080604854471984</v>
+        <v>1.018508379351821</v>
       </c>
       <c r="N18">
-        <v>1.077781302619008</v>
+        <v>0.9847016605548631</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.070552605591695</v>
+        <v>0.9556284823678822</v>
       </c>
       <c r="D19">
-        <v>1.060583881978257</v>
+        <v>1.022118179233488</v>
       </c>
       <c r="E19">
-        <v>1.072521521882372</v>
+        <v>0.9817628316922755</v>
       </c>
       <c r="F19">
-        <v>1.077546490085442</v>
+        <v>1.005625201814346</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047889837236036</v>
+        <v>1.04900462599542</v>
       </c>
       <c r="J19">
-        <v>1.076409183371877</v>
+        <v>0.984334191752563</v>
       </c>
       <c r="K19">
-        <v>1.063811493448188</v>
+        <v>1.03550318500066</v>
       </c>
       <c r="L19">
-        <v>1.075710791565755</v>
+        <v>0.9958376879274355</v>
       </c>
       <c r="M19">
-        <v>1.080719898175752</v>
+        <v>1.01928351201844</v>
       </c>
       <c r="N19">
-        <v>1.077937807878124</v>
+        <v>0.9857320592095616</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>1.069732478652605</v>
+        <v>0.9500850663406005</v>
       </c>
       <c r="D20">
-        <v>1.060209586129048</v>
+        <v>1.019557420853503</v>
       </c>
       <c r="E20">
-        <v>1.071843016920087</v>
+        <v>0.9772738664032239</v>
       </c>
       <c r="F20">
-        <v>1.076968567878198</v>
+        <v>1.001770749329013</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047750858640929</v>
+        <v>1.047733606550823</v>
       </c>
       <c r="J20">
-        <v>1.075709762442306</v>
+        <v>0.97968562803804</v>
       </c>
       <c r="K20">
-        <v>1.063500671818237</v>
+        <v>1.033264878298177</v>
       </c>
       <c r="L20">
-        <v>1.075095933342245</v>
+        <v>0.9917284556863668</v>
       </c>
       <c r="M20">
-        <v>1.080204953946696</v>
+        <v>1.015782533543417</v>
       </c>
       <c r="N20">
-        <v>1.077237393690609</v>
+        <v>0.9810768940013659</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.067057432437017</v>
+        <v>0.9309645587530776</v>
       </c>
       <c r="D21">
-        <v>1.058987426351298</v>
+        <v>1.010790897143625</v>
       </c>
       <c r="E21">
-        <v>1.069629404666253</v>
+        <v>0.9618290079356996</v>
       </c>
       <c r="F21">
-        <v>1.075082450991791</v>
+        <v>0.9885334007102139</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047294151560826</v>
+        <v>1.043346846622012</v>
       </c>
       <c r="J21">
-        <v>1.073427213439103</v>
+        <v>0.9636617282690969</v>
       </c>
       <c r="K21">
-        <v>1.062484063839612</v>
+        <v>1.025570676521556</v>
       </c>
       <c r="L21">
-        <v>1.073088724751959</v>
+        <v>0.9775715159318287</v>
       </c>
       <c r="M21">
-        <v>1.078522964299239</v>
+        <v>1.003735317128711</v>
       </c>
       <c r="N21">
-        <v>1.074951603206009</v>
+        <v>0.965030238456784</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.065368617724247</v>
+        <v>0.9179442408025916</v>
       </c>
       <c r="D22">
-        <v>1.058214880468314</v>
+        <v>1.004884882169975</v>
       </c>
       <c r="E22">
-        <v>1.068231530064613</v>
+        <v>0.9513489085157462</v>
       </c>
       <c r="F22">
-        <v>1.073890896677326</v>
+        <v>0.9795750631112268</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047003228659693</v>
+        <v>1.04036257322975</v>
       </c>
       <c r="J22">
-        <v>1.0719852631743</v>
+        <v>0.9527618694120679</v>
       </c>
       <c r="K22">
-        <v>1.061840138749923</v>
+        <v>1.020360185761033</v>
       </c>
       <c r="L22">
-        <v>1.071820236531697</v>
+        <v>0.9679499480737497</v>
       </c>
       <c r="M22">
-        <v>1.077459284213069</v>
+        <v>0.995562299096416</v>
       </c>
       <c r="N22">
-        <v>1.073507605206435</v>
+        <v>0.9541149005499469</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.066264558901111</v>
+        <v>0.9249529901096453</v>
       </c>
       <c r="D23">
-        <v>1.058624817438113</v>
+        <v>1.008057317678041</v>
       </c>
       <c r="E23">
-        <v>1.068973157805413</v>
+        <v>0.956986323839469</v>
       </c>
       <c r="F23">
-        <v>1.074523108926362</v>
+        <v>0.9843913464180077</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047157812444331</v>
+        <v>1.041968351164499</v>
       </c>
       <c r="J23">
-        <v>1.072750326609911</v>
+        <v>0.9586278146737357</v>
       </c>
       <c r="K23">
-        <v>1.062181949808743</v>
+        <v>1.023161676045875</v>
       </c>
       <c r="L23">
-        <v>1.072493310256447</v>
+        <v>0.9731270288819268</v>
       </c>
       <c r="M23">
-        <v>1.078023751897594</v>
+        <v>0.9999583394055904</v>
       </c>
       <c r="N23">
-        <v>1.07427375511988</v>
+        <v>0.9599891761267194</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.069777212135691</v>
+        <v>0.9503910127527702</v>
       </c>
       <c r="D24">
-        <v>1.060230006910929</v>
+        <v>1.019698537025029</v>
       </c>
       <c r="E24">
-        <v>1.071880027605005</v>
+        <v>0.9775214913591325</v>
       </c>
       <c r="F24">
-        <v>1.077000094527715</v>
+        <v>1.001983294175395</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047758451968678</v>
+        <v>1.047803775791052</v>
       </c>
       <c r="J24">
-        <v>1.07574791665109</v>
+        <v>0.9799421583276666</v>
       </c>
       <c r="K24">
-        <v>1.063517635990204</v>
+        <v>1.033388335201173</v>
       </c>
       <c r="L24">
-        <v>1.075129476934179</v>
+        <v>0.9919551991475767</v>
       </c>
       <c r="M24">
-        <v>1.08023305033322</v>
+        <v>1.015975670234424</v>
       </c>
       <c r="N24">
-        <v>1.077275602082745</v>
+        <v>0.9813337885934285</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.07382474605383</v>
+        <v>0.9764878585447559</v>
       </c>
       <c r="D25">
-        <v>1.06207524341828</v>
+        <v>1.031822887438511</v>
       </c>
       <c r="E25">
-        <v>1.075227847849791</v>
+        <v>0.9986947607314722</v>
       </c>
       <c r="F25">
-        <v>1.079850624287458</v>
+        <v>1.020188624490815</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048439269789967</v>
+        <v>1.053774654701644</v>
       </c>
       <c r="J25">
-        <v>1.07919791559384</v>
+        <v>1.001833262000497</v>
       </c>
       <c r="K25">
-        <v>1.06504742381184</v>
+        <v>1.043946492380806</v>
       </c>
       <c r="L25">
-        <v>1.078161412647608</v>
+        <v>1.011313372706572</v>
       </c>
       <c r="M25">
-        <v>1.082770859564601</v>
+        <v>1.032481418167597</v>
       </c>
       <c r="N25">
-        <v>1.080730500419714</v>
+        <v>1.003255980144419</v>
       </c>
     </row>
   </sheetData>
